--- a/MakeMoney/Input/Thong_Ke/documents-export-2013-11-20/RATE 2013.xlsx
+++ b/MakeMoney/Input/Thong_Ke/documents-export-2013-11-20/RATE 2013.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="515" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="242" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="D_T9" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="650">
   <si>
     <t>Ngay</t>
   </si>
@@ -1965,10 +1965,13 @@
     <t>464 &gt; 46</t>
   </si>
   <si>
-    <t>41;42;74;42;94;30;46;54;98;60;48;86;53;84;47;14;37;14;41;76;51;23;67;65;76;03;98 </t>
-  </si>
-  <si>
-    <t>464 &gt;</t>
+    <t>41;42;74;42;94;30;46;54;98;60;48;86;53;84;47;14;37;14;41;76;51;23;67;65;76;03;98</t>
+  </si>
+  <si>
+    <t>72;85;21;02;83;81;25;08;88;64;28;62;72;66;43;22;31;52;35;68;90;84;45;20;89;42;13 </t>
+  </si>
+  <si>
+    <t>282 &gt;</t>
   </si>
   <si>
     <t>30 / 11</t>
@@ -1978,10 +1981,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
     <numFmt formatCode="M/D/YYYY;@" numFmtId="165"/>
-    <numFmt formatCode="GENERAL" numFmtId="166"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -2129,7 +2131,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
@@ -2152,7 +2154,7 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
@@ -2255,6 +2257,7 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -2279,21 +2282,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.18039215686274"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="71.7843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.47450980392157"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.6078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.90196078431373"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.46274509803922"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.32941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.6078431372549"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.90588235294118"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.6078431372549"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.46274509803922"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.75294117647059"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="21.8156862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.2196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.22352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.1450980392157"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.52156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.64313725490196"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.65490196078431"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.93725490196078"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.49803921568627"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.37647058823529"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.64313725490196"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.94901960784314"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.64313725490196"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.49803921568627"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="21.921568627451"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.3019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -5654,21 +5657,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.16862745098039"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.6627450980392"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.87843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.19607843137255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.0313725490196"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.04705882352941"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.89803921568627"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.62745098039216"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.9450980392157"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.2196078431373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.0274509803922"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.3019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -7798,26 +7801,26 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B25" activeCellId="0" pane="topLeft" sqref="B25"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="O26" activeCellId="0" pane="topLeft" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.16862745098039"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.6627450980392"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.87843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.19607843137255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.0313725490196"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.04705882352941"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.89803921568627"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.62745098039216"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.9450980392157"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.2196078431373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.0274509803922"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.3019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -8943,56 +8946,62 @@
         <v>37</v>
       </c>
       <c r="O23" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="P23" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
+      <c r="B24" s="0" t="s">
         <v>647</v>
       </c>
-      <c r="P23" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
       <c r="C24" s="6" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D24" s="6" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"1",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" s="2" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"2",""))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F24" s="6" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"3",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G24" s="6" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"4",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H24" s="6" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"5",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I24" s="6" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"6",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J24" s="6" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"7",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K24" s="2" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"8",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L24" s="6" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"9",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>39</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>40</v>
+      </c>
+      <c r="O24" s="43" t="s">
+        <v>648</v>
       </c>
       <c r="P24" s="2"/>
     </row>
@@ -9398,7 +9407,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C33" s="6" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
@@ -9910,21 +9919,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.18039215686274"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="71.7843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.47450980392157"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.6078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.90196078431373"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.46274509803922"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.32941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.6078431372549"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.90588235294118"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.6078431372549"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.46274509803922"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.75294117647059"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="21.8156862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.2196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.22352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.1450980392157"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.52156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.64313725490196"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.65490196078431"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.93725490196078"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.49803921568627"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.37647058823529"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.64313725490196"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.94901960784314"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.64313725490196"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.49803921568627"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="21.921568627451"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.3019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -11657,21 +11666,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.16862745098039"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.6627450980392"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.87843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.19607843137255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.0313725490196"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.04705882352941"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.89803921568627"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.62745098039216"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.9333333333333"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.2196078431373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.0039215686275"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.3019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -13749,21 +13758,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.16862745098039"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.6627450980392"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.87843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.19607843137255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.0313725490196"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.04705882352941"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.89803921568627"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.62745098039216"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.9333333333333"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.2196078431373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.0039215686275"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.3019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -15817,21 +15826,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.16862745098039"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.6627450980392"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.87843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.19607843137255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.0313725490196"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.04705882352941"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.89803921568627"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.62745098039216"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.9333333333333"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.2196078431373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.0039215686275"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.3019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -17891,20 +17900,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.6"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="71.7843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="3.87843137254902"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.46274509803922"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.62745098039216"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.1450980392157"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="3.89803921568627"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.49803921568627"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.7725490196078"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.2196078431373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.8352941176471"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.3019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -19420,7 +19429,7 @@
         <v>35</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="29">
       <c r="B29" s="6" t="s">
         <v>359</v>
       </c>
@@ -19707,7 +19716,7 @@
       </c>
       <c r="O33" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="34">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="34">
       <c r="C34" s="6" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
         <v>0</v>
@@ -19877,21 +19886,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.6"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.0666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.44705882352941"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.30980392156863"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.87843137254902"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.46274509803922"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.62745098039216"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.4274509803922"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.46274509803922"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.32941176470588"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.89803921568627"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.49803921568627"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.7725490196078"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.2196078431373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.8352941176471"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.3019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
@@ -21858,19 +21867,19 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.32156862745098"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.2392156862745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.5921568627451"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.46274509803922"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.34901960784314"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.6196078431373"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.6078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.49803921568627"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.7725490196078"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.2196078431373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.8352941176471"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.3019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
@@ -25687,21 +25696,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.18039215686274"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.7921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.87843137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.87843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.5921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.32941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.6078431372549"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.90588235294118"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.6078431372549"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.46274509803922"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.22352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.1529411764706"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.89803921568627"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.74509803921569"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.89803921568627"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.6078431372549"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.37647058823529"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.64313725490196"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.94901960784314"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.64313725490196"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.49803921568627"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.7725490196078"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.2196078431373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.8352941176471"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.3019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
